--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dcn-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dcn-Erbb4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H2">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I2">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J2">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,19 +567,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P2">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q2">
-        <v>0.273683058116</v>
+        <v>0.213470699577</v>
       </c>
       <c r="R2">
-        <v>2.463147523044</v>
+        <v>1.921236296193</v>
       </c>
       <c r="S2">
-        <v>0.02304422371366495</v>
+        <v>0.01812527022310415</v>
       </c>
       <c r="T2">
-        <v>0.02304422371366496</v>
+        <v>0.01812527022310415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H3">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I3">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J3">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q3">
-        <v>0.005297034299555556</v>
+        <v>0.004131646384666668</v>
       </c>
       <c r="R3">
-        <v>0.047673308696</v>
+        <v>0.037184817462</v>
       </c>
       <c r="S3">
-        <v>0.0004460124212956481</v>
+        <v>0.0003508078969937624</v>
       </c>
       <c r="T3">
-        <v>0.0004460124212956482</v>
+        <v>0.0003508078969937625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I4">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J4">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P4">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q4">
         <v>11.308263025151</v>
@@ -700,10 +700,10 @@
         <v>101.774367226359</v>
       </c>
       <c r="S4">
-        <v>0.9521603008911669</v>
+        <v>0.9601567029617897</v>
       </c>
       <c r="T4">
-        <v>0.952160300891167</v>
+        <v>0.9601567029617897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I5">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J5">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -762,10 +762,10 @@
         <v>1.969805210906</v>
       </c>
       <c r="S5">
-        <v>0.01842871022859558</v>
+        <v>0.01858347763119883</v>
       </c>
       <c r="T5">
-        <v>0.01842871022859559</v>
+        <v>0.01858347763119883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H6">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I6">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J6">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,19 +815,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P6">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q6">
-        <v>0.002001614083</v>
+        <v>0.010286678963</v>
       </c>
       <c r="R6">
-        <v>0.018014526747</v>
+        <v>0.092580110667</v>
       </c>
       <c r="S6">
-        <v>0.0001685367118980528</v>
+        <v>0.0008734165216685518</v>
       </c>
       <c r="T6">
-        <v>0.0001685367118980528</v>
+        <v>0.0008734165216685519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H7">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I7">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J7">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -880,16 +880,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q7">
-        <v>3.874049977777778E-05</v>
+        <v>0.0001990948642222222</v>
       </c>
       <c r="R7">
-        <v>0.000348664498</v>
+        <v>0.001791853778</v>
       </c>
       <c r="S7">
-        <v>3.261965683239006E-06</v>
+        <v>1.69046535248663E-05</v>
       </c>
       <c r="T7">
-        <v>3.261965683239006E-06</v>
+        <v>1.69046535248663E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H8">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I8">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J8">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,19 +939,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P8">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q8">
-        <v>0.062767955832</v>
+        <v>0.012768713932</v>
       </c>
       <c r="R8">
-        <v>0.5649116024880001</v>
+        <v>0.114918425388</v>
       </c>
       <c r="S8">
-        <v>0.005285087159574848</v>
+        <v>0.001084159984848573</v>
       </c>
       <c r="T8">
-        <v>0.00528508715957485</v>
+        <v>0.001084159984848573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H9">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I9">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J9">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1004,16 +1004,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q9">
-        <v>0.001214850554666667</v>
+        <v>0.0002471337324444445</v>
       </c>
       <c r="R9">
-        <v>0.010933654992</v>
+        <v>0.002224203592</v>
       </c>
       <c r="S9">
-        <v>0.000102290905959341</v>
+        <v>2.098351525842142E-05</v>
       </c>
       <c r="T9">
-        <v>0.000102290905959341</v>
+        <v>2.098351525842143E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H10">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I10">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J10">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,19 +1063,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P10">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q10">
-        <v>0.004212696094000001</v>
+        <v>0.009107666608</v>
       </c>
       <c r="R10">
-        <v>0.03791426484600001</v>
+        <v>0.081968999472</v>
       </c>
       <c r="S10">
-        <v>0.0003547107076926628</v>
+        <v>0.0007733094925863467</v>
       </c>
       <c r="T10">
-        <v>0.0003547107076926629</v>
+        <v>0.0007733094925863467</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H11">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I11">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J11">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1128,16 +1128,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q11">
-        <v>8.153517377777778E-05</v>
+        <v>0.0001762755164444444</v>
       </c>
       <c r="R11">
-        <v>0.0007338165640000001</v>
+        <v>0.001586479648</v>
       </c>
       <c r="S11">
-        <v>6.865294468725518E-06</v>
+        <v>1.496711902665745E-05</v>
       </c>
       <c r="T11">
-        <v>6.865294468725521E-06</v>
+        <v>1.496711902665745E-05</v>
       </c>
     </row>
   </sheetData>
